--- a/mnt/工作周报.xlsx
+++ b/mnt/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14145" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,125 @@
   </si>
   <si>
     <t>基础数据试验和抓取 进行数据清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigitalNote
+OneRootNetwork
+Dropil
+BridgeCoin
+Factom
+Iconomi
+Veritaseum
+Pillar
+Eidoo
+CRYPTO20
+Eternal Token
+MonaCoin
+novacoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropil
+Veritaseum
+MonaCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigitalNote
+BridgeCoin
+Pillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factom
+Eidoo
+novacoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRootNetwork
+CRYPTO20
+Eternal Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iconomi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长报告-ZCASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新报告-BTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核
+和技术评委沟通报告细节，定出撰写要素。向标准化贴近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理自己的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理剩下的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告整理-已有报告标准化（数据入库、模块化计分）：该部分全部完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告整理-特征量提取：样例可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理block.cc的数据
+完成数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API取数频率，业务意义
+数据库表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部技术部分标准化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初稿形成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析的外部专家沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理自身需求，确定讲课时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +552,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1129,63 +1260,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8"/>
     <col min="3" max="3" width="31.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="189" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>43402</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>43406</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1208,117 +1343,328 @@
       <c r="J2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>43402</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>43406</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>43402</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>43406</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>43402</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>43406</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>43402</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>43406</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>43402</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>43406</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B8" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B9" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B12" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B13" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B14" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>43378</v>
+      </c>
+      <c r="B15" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/mnt/工作周报.xlsx
+++ b/mnt/工作周报.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-4500" yWindow="-24460" windowWidth="38400" windowHeight="24000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
     <sheet name="10-26" sheetId="2" r:id="rId2"/>
     <sheet name="11-2" sheetId="3" r:id="rId3"/>
+    <sheet name="11-9" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,12 +452,90 @@
     <t>整理自身需求，确定讲课时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ABT
+ACT
+BURST
+CPX
+HPB
+PAI
+PART
+POA
+QRL
+TOMO
+MAN
+NXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXS
+CPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POA
+TOMO
+MAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABT
+ACT
+QRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURST
+PAI
+PART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytecoin-part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytecoin-part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长报告 bytecoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告标准化使用和改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据整理-数据库设计验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部技术标准化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据采集和验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据采集和验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +560,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +605,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -507,26 +622,68 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,9 +723,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="15">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,15 +1053,15 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
@@ -898,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="B3" s="3">
         <v>43382</v>
       </c>
@@ -915,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>43382</v>
       </c>
@@ -930,7 +1110,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" s="3">
         <v>43382</v>
       </c>
@@ -947,7 +1127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>43382</v>
       </c>
@@ -962,7 +1142,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>43389</v>
       </c>
@@ -979,7 +1159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>43389</v>
       </c>
@@ -996,7 +1176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>43389</v>
       </c>
@@ -1011,7 +1191,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>43389</v>
       </c>
@@ -1031,6 +1211,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1042,20 +1227,20 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.75" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="7.75" customWidth="1"/>
+    <col min="1" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="56">
       <c r="A3" s="3">
         <v>43395</v>
       </c>
@@ -1119,7 +1304,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="28">
       <c r="A4" s="3">
         <v>43395</v>
       </c>
@@ -1142,7 +1327,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28">
       <c r="A5" s="3">
         <v>43395</v>
       </c>
@@ -1167,7 +1352,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>43398</v>
       </c>
@@ -1186,7 +1371,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>43402</v>
       </c>
@@ -1201,7 +1386,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>43403</v>
       </c>
@@ -1216,7 +1401,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>43404</v>
       </c>
@@ -1231,7 +1416,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>43405</v>
       </c>
@@ -1246,7 +1431,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>43406</v>
       </c>
@@ -1255,6 +1440,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1262,26 +1452,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="31.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="8"/>
+    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
-    <col min="8" max="9" width="9" style="8"/>
-    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="189" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="196">
       <c r="A2" s="10">
         <v>43402</v>
       </c>
@@ -1345,7 +1535,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="10">
         <v>43402</v>
       </c>
@@ -1368,7 +1558,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="10">
         <v>43402</v>
       </c>
@@ -1389,7 +1579,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="42">
       <c r="A5" s="10">
         <v>43402</v>
       </c>
@@ -1410,7 +1600,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="42">
       <c r="A6" s="10">
         <v>43402</v>
       </c>
@@ -1431,7 +1621,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>43402</v>
       </c>
@@ -1452,7 +1642,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="182">
       <c r="A8" s="11">
         <v>43378</v>
       </c>
@@ -1481,7 +1671,7 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="56">
       <c r="A9" s="11">
         <v>43378</v>
       </c>
@@ -1508,7 +1698,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <v>43378</v>
       </c>
@@ -1533,7 +1723,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="28">
       <c r="A11" s="11">
         <v>43378</v>
       </c>
@@ -1566,7 +1756,7 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="28">
       <c r="A12" s="11">
         <v>43378</v>
       </c>
@@ -1599,7 +1789,7 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="28">
       <c r="A13" s="11">
         <v>43378</v>
       </c>
@@ -1620,7 +1810,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <v>43378</v>
       </c>
@@ -1641,7 +1831,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="28">
       <c r="A15" s="11">
         <v>43378</v>
       </c>
@@ -1666,5 +1856,407 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="8"/>
+    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="182">
+      <c r="A2" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="56">
+      <c r="A3" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="28">
+      <c r="A5" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="28">
+      <c r="A6" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="28">
+      <c r="A7" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="28">
+      <c r="A9" s="13">
+        <v>43378</v>
+      </c>
+      <c r="B9" s="13">
+        <v>43382</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="168">
+      <c r="A10" s="11">
+        <v>43385</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43389</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="28">
+      <c r="A11" s="11">
+        <v>43385</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43389</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11">
+        <v>43385</v>
+      </c>
+      <c r="B12" s="11">
+        <v>43389</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11">
+        <v>43385</v>
+      </c>
+      <c r="B13" s="11">
+        <v>43389</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11">
+        <v>43385</v>
+      </c>
+      <c r="B14" s="11">
+        <v>43389</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mnt/工作周报.xlsx
+++ b/mnt/工作周报.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="-24460" windowWidth="38400" windowHeight="24000" activeTab="3"/>
+    <workbookView xWindow="-4500" yWindow="-24465" windowWidth="28920" windowHeight="24000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
     <sheet name="10-26" sheetId="2" r:id="rId2"/>
     <sheet name="11-2" sheetId="3" r:id="rId3"/>
     <sheet name="11-9" sheetId="4" r:id="rId4"/>
+    <sheet name="11-23" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,12 +531,167 @@
     <t>标准化沟通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ABT
+ACT
+BURST
+CPX
+HPB
+PAI
+PART
+POA
+QRL
+TOMO
+MAN
+NXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NXS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BURST
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PART</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XYO
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长报告 Decred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decred-市场产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decred-技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SNM
+VEE
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decred-二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">REN
+OST
+RCN
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中间模型层开始进数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据采集ETL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级市场数据分析和处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADR指标计算和验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短报告：
+QSP
+SMT*
+REN
+OST
+SNM
+VEE
+XYO
+MOBI
+DNT
+RCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSP
+SMT*
+DNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +738,22 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -683,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,8 +904,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -741,14 +920,13 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1050,18 +1228,18 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>43382</v>
       </c>
@@ -1095,7 +1273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>43382</v>
       </c>
@@ -1110,7 +1288,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>43382</v>
       </c>
@@ -1127,7 +1305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>43382</v>
       </c>
@@ -1142,7 +1320,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>43389</v>
       </c>
@@ -1159,7 +1337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>43389</v>
       </c>
@@ -1176,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>43389</v>
       </c>
@@ -1191,7 +1369,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>43389</v>
       </c>
@@ -1224,23 +1402,23 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="56">
+    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>43395</v>
       </c>
@@ -1304,7 +1482,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="28">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>43395</v>
       </c>
@@ -1327,7 +1505,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>43395</v>
       </c>
@@ -1352,7 +1530,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>43398</v>
       </c>
@@ -1371,7 +1549,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43402</v>
       </c>
@@ -1386,7 +1564,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43403</v>
       </c>
@@ -1401,7 +1579,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43404</v>
       </c>
@@ -1416,7 +1594,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43405</v>
       </c>
@@ -1431,7 +1609,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43406</v>
       </c>
@@ -1454,24 +1632,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="8"/>
-    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="8"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1506,7 +1684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="196">
+    <row r="2" spans="1:11" ht="189" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>43402</v>
       </c>
@@ -1535,7 +1713,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>43402</v>
       </c>
@@ -1558,7 +1736,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>43402</v>
       </c>
@@ -1579,7 +1757,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="42">
+    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>43402</v>
       </c>
@@ -1600,7 +1778,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="42">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>43402</v>
       </c>
@@ -1621,7 +1799,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>43402</v>
       </c>
@@ -1642,7 +1820,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="182">
+    <row r="8" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>43378</v>
       </c>
@@ -1671,7 +1849,7 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="56">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>43378</v>
       </c>
@@ -1698,7 +1876,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>43378</v>
       </c>
@@ -1723,7 +1901,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="28">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>43378</v>
       </c>
@@ -1756,7 +1934,7 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="28">
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>43378</v>
       </c>
@@ -1789,7 +1967,7 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="28">
+    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>43378</v>
       </c>
@@ -1810,7 +1988,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>43378</v>
       </c>
@@ -1831,7 +2009,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="28">
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>43378</v>
       </c>
@@ -1868,26 +2046,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="8"/>
-    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="8"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1922,7 +2100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="182">
+    <row r="2" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>43378</v>
       </c>
@@ -1951,7 +2129,7 @@
       </c>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="56">
+    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>43378</v>
       </c>
@@ -1978,7 +2156,7 @@
       </c>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>43378</v>
       </c>
@@ -2003,7 +2181,7 @@
       </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>43378</v>
       </c>
@@ -2036,7 +2214,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="28">
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>43378</v>
       </c>
@@ -2069,7 +2247,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="28">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>43378</v>
       </c>
@@ -2090,7 +2268,7 @@
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>43378</v>
       </c>
@@ -2111,7 +2289,7 @@
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="28">
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>43378</v>
       </c>
@@ -2132,7 +2310,7 @@
       </c>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="168">
+    <row r="10" spans="1:11" ht="162" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>43385</v>
       </c>
@@ -2161,7 +2339,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="28">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>43385</v>
       </c>
@@ -2184,7 +2362,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>43385</v>
       </c>
@@ -2203,7 +2381,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>43385</v>
       </c>
@@ -2228,7 +2406,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>43385</v>
       </c>
@@ -2259,4 +2437,272 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>43385</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43389</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>43385</v>
+      </c>
+      <c r="B3" s="10">
+        <v>43389</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>43385</v>
+      </c>
+      <c r="B4" s="10">
+        <v>43389</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>43385</v>
+      </c>
+      <c r="B5" s="10">
+        <v>43389</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>43385</v>
+      </c>
+      <c r="B6" s="10">
+        <v>43389</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>43392</v>
+      </c>
+      <c r="B7" s="11">
+        <v>43396</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>43392</v>
+      </c>
+      <c r="B8" s="11">
+        <v>43396</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>43392</v>
+      </c>
+      <c r="B9" s="11">
+        <v>43396</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>43392</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43396</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mnt/工作周报.xlsx
+++ b/mnt/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="-24465" windowWidth="28920" windowHeight="24000" activeTab="4"/>
+    <workbookView xWindow="-4500" yWindow="-24465" windowWidth="28920" windowHeight="24000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="11-2" sheetId="3" r:id="rId3"/>
     <sheet name="11-9" sheetId="4" r:id="rId4"/>
     <sheet name="11-23" sheetId="5" r:id="rId5"/>
+    <sheet name="11-30" sheetId="6" r:id="rId6"/>
+    <sheet name="12-7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="157">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,12 +688,173 @@
 DNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>短报告
+DNT
+RCN
+RDN
+BLZ
+REN
+SCRL
+EOSDAC
+XCP
+TRAC
+APPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XCP
+TRAC
+APPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAV
+BLZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新报告 ADA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA 结合当前BTC市场行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA 数据支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STO 培训教材/文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RCN
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRL
+REN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理当前报告数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证二级市场数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">STO SEC &amp; CME </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场和案例框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模型讲解和落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短报告
+BAT
+DTA
+SNT
+R
+KIN
+SUB
+TCT
+CPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTA
+SNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R
+KIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB
+TCT
+CPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STO
+REG S
+REG A+ XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG A+ XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新报告 IOTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STO
+翻译和研究初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译和研究初稿</t>
+  </si>
+  <si>
+    <t>翻译和研究初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADR和其它数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,7 +921,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +943,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +977,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,8 +1023,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,8 +1127,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -920,6 +1143,14 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -927,6 +1158,14 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,7 +1470,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
@@ -1239,7 +1478,7 @@
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="B3" s="3">
         <v>43382</v>
       </c>
@@ -1273,7 +1512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>43382</v>
       </c>
@@ -1288,7 +1527,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" s="3">
         <v>43382</v>
       </c>
@@ -1305,7 +1544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>43382</v>
       </c>
@@ -1320,7 +1559,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>43389</v>
       </c>
@@ -1337,7 +1576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>43389</v>
       </c>
@@ -1354,7 +1593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>43389</v>
       </c>
@@ -1369,7 +1608,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>43389</v>
       </c>
@@ -1405,7 +1644,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.625" customWidth="1"/>
@@ -1418,7 +1657,7 @@
     <col min="11" max="11" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="54">
       <c r="A3" s="3">
         <v>43395</v>
       </c>
@@ -1482,7 +1721,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="3">
         <v>43395</v>
       </c>
@@ -1505,7 +1744,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="27">
       <c r="A5" s="3">
         <v>43395</v>
       </c>
@@ -1530,7 +1769,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>43398</v>
       </c>
@@ -1549,7 +1788,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>43402</v>
       </c>
@@ -1564,7 +1803,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>43403</v>
       </c>
@@ -1579,7 +1818,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>43404</v>
       </c>
@@ -1594,7 +1833,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>43405</v>
       </c>
@@ -1609,7 +1848,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>43406</v>
       </c>
@@ -1635,7 +1874,7 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="8"/>
@@ -1649,7 +1888,7 @@
     <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +1923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="189" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="189">
       <c r="A2" s="10">
         <v>43402</v>
       </c>
@@ -1713,7 +1952,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="10">
         <v>43402</v>
       </c>
@@ -1736,7 +1975,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="10">
         <v>43402</v>
       </c>
@@ -1757,7 +1996,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="40.5">
       <c r="A5" s="10">
         <v>43402</v>
       </c>
@@ -1778,7 +2017,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="40.5">
       <c r="A6" s="10">
         <v>43402</v>
       </c>
@@ -1799,7 +2038,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>43402</v>
       </c>
@@ -1820,7 +2059,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="175.5">
       <c r="A8" s="11">
         <v>43378</v>
       </c>
@@ -1849,7 +2088,7 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="54">
       <c r="A9" s="11">
         <v>43378</v>
       </c>
@@ -1876,7 +2115,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <v>43378</v>
       </c>
@@ -1901,7 +2140,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="27">
       <c r="A11" s="11">
         <v>43378</v>
       </c>
@@ -1934,7 +2173,7 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="27">
       <c r="A12" s="11">
         <v>43378</v>
       </c>
@@ -1967,7 +2206,7 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="27">
       <c r="A13" s="11">
         <v>43378</v>
       </c>
@@ -1988,7 +2227,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <v>43378</v>
       </c>
@@ -2009,7 +2248,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="27">
       <c r="A15" s="11">
         <v>43378</v>
       </c>
@@ -2051,7 +2290,7 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="8"/>
@@ -2065,7 +2304,7 @@
     <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2100,7 +2339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="175.5">
       <c r="A2" s="13">
         <v>43378</v>
       </c>
@@ -2129,7 +2368,7 @@
       </c>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="54">
       <c r="A3" s="13">
         <v>43378</v>
       </c>
@@ -2156,7 +2395,7 @@
       </c>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>43378</v>
       </c>
@@ -2181,7 +2420,7 @@
       </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="27">
       <c r="A5" s="13">
         <v>43378</v>
       </c>
@@ -2214,7 +2453,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="27">
       <c r="A6" s="13">
         <v>43378</v>
       </c>
@@ -2247,7 +2486,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="13">
         <v>43378</v>
       </c>
@@ -2268,7 +2507,7 @@
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="13">
         <v>43378</v>
       </c>
@@ -2289,7 +2528,7 @@
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="27">
       <c r="A9" s="13">
         <v>43378</v>
       </c>
@@ -2310,7 +2549,7 @@
       </c>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="162" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="162">
       <c r="A10" s="11">
         <v>43385</v>
       </c>
@@ -2339,7 +2578,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="27">
       <c r="A11" s="11">
         <v>43385</v>
       </c>
@@ -2362,7 +2601,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <v>43385</v>
       </c>
@@ -2381,7 +2620,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <v>43385</v>
       </c>
@@ -2406,7 +2645,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <v>43385</v>
       </c>
@@ -2443,15 +2682,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
@@ -2462,7 +2700,7 @@
     <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2494,7 +2732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="162">
       <c r="A2" s="10">
         <v>43385</v>
       </c>
@@ -2522,7 +2760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="27">
       <c r="A3" s="10">
         <v>43385</v>
       </c>
@@ -2544,7 +2782,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="16" customFormat="1">
       <c r="A4" s="10">
         <v>43385</v>
       </c>
@@ -2562,7 +2800,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="16" customFormat="1">
       <c r="A5" s="10">
         <v>43385</v>
       </c>
@@ -2586,7 +2824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="16" customFormat="1">
       <c r="A6" s="10">
         <v>43385</v>
       </c>
@@ -2606,7 +2844,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="148.5">
       <c r="A7" s="11">
         <v>43392</v>
       </c>
@@ -2634,7 +2872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="27">
       <c r="A8" s="11">
         <v>43392</v>
       </c>
@@ -2658,7 +2896,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="11">
         <v>43392</v>
       </c>
@@ -2678,7 +2916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" s="11">
         <v>43392</v>
       </c>
@@ -2703,6 +2941,522 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="148.5">
+      <c r="A2" s="13">
+        <v>43392</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43396</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="13">
+        <v>43392</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43396</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13">
+        <v>43392</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43396</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27">
+      <c r="A5" s="13">
+        <v>43392</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43396</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="148.5">
+      <c r="A6" s="11">
+        <v>43399</v>
+      </c>
+      <c r="B6" s="11">
+        <v>43403</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5">
+      <c r="A7" s="11">
+        <v>43399</v>
+      </c>
+      <c r="B7" s="11">
+        <v>43403</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11">
+        <v>43399</v>
+      </c>
+      <c r="B8" s="11">
+        <v>43403</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27">
+      <c r="A9" s="11">
+        <v>43399</v>
+      </c>
+      <c r="B9" s="11">
+        <v>43403</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11">
+        <v>43399</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43403</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="148.5">
+      <c r="A2" s="18">
+        <v>43430</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43434</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5">
+      <c r="A3" s="18">
+        <v>43430</v>
+      </c>
+      <c r="B3" s="18">
+        <v>43434</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18">
+        <v>43430</v>
+      </c>
+      <c r="B4" s="18">
+        <v>43434</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27">
+      <c r="A5" s="18">
+        <v>43430</v>
+      </c>
+      <c r="B5" s="18">
+        <v>43434</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18">
+        <v>43430</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43434</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="121.5">
+      <c r="A7" s="11">
+        <v>43437</v>
+      </c>
+      <c r="B7" s="11">
+        <v>43441</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5">
+      <c r="A8" s="11">
+        <v>43437</v>
+      </c>
+      <c r="B8" s="11">
+        <v>43441</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11">
+        <v>43437</v>
+      </c>
+      <c r="B9" s="11">
+        <v>43441</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="27">
+      <c r="A10" s="11">
+        <v>43437</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43441</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11">
+        <v>43437</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43441</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/mnt/工作周报.xlsx
+++ b/mnt/工作周报.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="-24465" windowWidth="28920" windowHeight="24000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="11-2" sheetId="3" r:id="rId3"/>
     <sheet name="11-9" sheetId="4" r:id="rId4"/>
     <sheet name="11-23" sheetId="5" r:id="rId5"/>
+    <sheet name="11-30" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,8 +809,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,8 +924,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="19">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -920,13 +932,18 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,15 +1248,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="B3" s="3">
         <v>43382</v>
       </c>
@@ -1273,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>43382</v>
       </c>
@@ -1288,7 +1305,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" s="3">
         <v>43382</v>
       </c>
@@ -1305,7 +1322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>43382</v>
       </c>
@@ -1320,7 +1337,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>43389</v>
       </c>
@@ -1337,7 +1354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>43389</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>43389</v>
       </c>
@@ -1369,7 +1386,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>43389</v>
       </c>
@@ -1405,20 +1422,20 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="9" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="1" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="56">
       <c r="A3" s="3">
         <v>43395</v>
       </c>
@@ -1482,7 +1499,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="28">
       <c r="A4" s="3">
         <v>43395</v>
       </c>
@@ -1505,7 +1522,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28">
       <c r="A5" s="3">
         <v>43395</v>
       </c>
@@ -1530,7 +1547,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>43398</v>
       </c>
@@ -1549,7 +1566,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>43402</v>
       </c>
@@ -1564,7 +1581,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>43403</v>
       </c>
@@ -1579,7 +1596,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>43404</v>
       </c>
@@ -1594,7 +1611,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>43405</v>
       </c>
@@ -1609,7 +1626,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>43406</v>
       </c>
@@ -1635,21 +1652,21 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="8"/>
-    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="8"/>
+    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.875" style="8"/>
-    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="8"/>
+    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +1701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="189" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="196">
       <c r="A2" s="10">
         <v>43402</v>
       </c>
@@ -1713,7 +1730,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="10">
         <v>43402</v>
       </c>
@@ -1736,7 +1753,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="10">
         <v>43402</v>
       </c>
@@ -1757,7 +1774,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="42">
       <c r="A5" s="10">
         <v>43402</v>
       </c>
@@ -1778,7 +1795,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="42">
       <c r="A6" s="10">
         <v>43402</v>
       </c>
@@ -1799,7 +1816,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>43402</v>
       </c>
@@ -1820,7 +1837,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="182">
       <c r="A8" s="11">
         <v>43378</v>
       </c>
@@ -1849,7 +1866,7 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="56">
       <c r="A9" s="11">
         <v>43378</v>
       </c>
@@ -1876,7 +1893,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <v>43378</v>
       </c>
@@ -1901,7 +1918,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="28">
       <c r="A11" s="11">
         <v>43378</v>
       </c>
@@ -1934,7 +1951,7 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="28">
       <c r="A12" s="11">
         <v>43378</v>
       </c>
@@ -1967,7 +1984,7 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="28">
       <c r="A13" s="11">
         <v>43378</v>
       </c>
@@ -1988,7 +2005,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <v>43378</v>
       </c>
@@ -2009,7 +2026,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="28">
       <c r="A15" s="11">
         <v>43378</v>
       </c>
@@ -2051,21 +2068,21 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="8"/>
-    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="8"/>
+    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.875" style="8"/>
-    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="8"/>
+    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2100,7 +2117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="182">
       <c r="A2" s="13">
         <v>43378</v>
       </c>
@@ -2129,7 +2146,7 @@
       </c>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="56">
       <c r="A3" s="13">
         <v>43378</v>
       </c>
@@ -2156,7 +2173,7 @@
       </c>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>43378</v>
       </c>
@@ -2181,7 +2198,7 @@
       </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28">
       <c r="A5" s="13">
         <v>43378</v>
       </c>
@@ -2214,7 +2231,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="28">
       <c r="A6" s="13">
         <v>43378</v>
       </c>
@@ -2247,7 +2264,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="28">
       <c r="A7" s="13">
         <v>43378</v>
       </c>
@@ -2268,7 +2285,7 @@
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="13">
         <v>43378</v>
       </c>
@@ -2289,7 +2306,7 @@
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="28">
       <c r="A9" s="13">
         <v>43378</v>
       </c>
@@ -2310,7 +2327,7 @@
       </c>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="162" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="168">
       <c r="A10" s="11">
         <v>43385</v>
       </c>
@@ -2339,7 +2356,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="28">
       <c r="A11" s="11">
         <v>43385</v>
       </c>
@@ -2362,7 +2379,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <v>43385</v>
       </c>
@@ -2381,7 +2398,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <v>43385</v>
       </c>
@@ -2406,7 +2423,7 @@
       </c>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <v>43385</v>
       </c>
@@ -2443,26 +2460,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.875" style="8"/>
-    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="8"/>
+    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2494,7 +2510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="162" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="168">
       <c r="A2" s="10">
         <v>43385</v>
       </c>
@@ -2522,7 +2538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="28">
       <c r="A3" s="10">
         <v>43385</v>
       </c>
@@ -2544,7 +2560,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="16" customFormat="1">
       <c r="A4" s="10">
         <v>43385</v>
       </c>
@@ -2562,7 +2578,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="16" customFormat="1">
       <c r="A5" s="10">
         <v>43385</v>
       </c>
@@ -2586,7 +2602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="16" customFormat="1">
       <c r="A6" s="10">
         <v>43385</v>
       </c>
@@ -2606,7 +2622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="154">
       <c r="A7" s="11">
         <v>43392</v>
       </c>
@@ -2634,7 +2650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="28">
       <c r="A8" s="11">
         <v>43392</v>
       </c>
@@ -2658,7 +2674,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="11">
         <v>43392</v>
       </c>
@@ -2678,7 +2694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="28">
       <c r="A10" s="11">
         <v>43392</v>
       </c>
@@ -2703,6 +2719,171 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="154">
+      <c r="A2" s="11">
+        <v>43423</v>
+      </c>
+      <c r="B2" s="11">
+        <v>43427</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28">
+      <c r="A3" s="11">
+        <v>43423</v>
+      </c>
+      <c r="B3" s="11">
+        <v>43427</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11">
+        <v>43423</v>
+      </c>
+      <c r="B4" s="11">
+        <v>43427</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28">
+      <c r="A5" s="11">
+        <v>43423</v>
+      </c>
+      <c r="B5" s="11">
+        <v>43427</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mnt/工作周报.xlsx
+++ b/mnt/工作周报.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="11-9" sheetId="4" r:id="rId4"/>
     <sheet name="11-23" sheetId="5" r:id="rId5"/>
     <sheet name="11-30" sheetId="6" r:id="rId6"/>
+    <sheet name="12-7" sheetId="7" r:id="rId7"/>
+    <sheet name="12-14" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="186">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,12 +689,225 @@
 DNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>截止日期</t>
+  </si>
+  <si>
+    <t>工作内容</t>
+  </si>
+  <si>
+    <t>akid</t>
+  </si>
+  <si>
+    <t>congcong</t>
+  </si>
+  <si>
+    <t>longboou</t>
+  </si>
+  <si>
+    <t>张朕铭</t>
+  </si>
+  <si>
+    <t>徐江</t>
+  </si>
+  <si>
+    <t>短报告</t>
+  </si>
+  <si>
+    <t>DNT</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t>RDN</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>SCRL</t>
+  </si>
+  <si>
+    <t>EOSDAC</t>
+  </si>
+  <si>
+    <t>XCP</t>
+  </si>
+  <si>
+    <t>TRAC</t>
+  </si>
+  <si>
+    <t>APPC</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>更新报告 ADA</t>
+  </si>
+  <si>
+    <t>ADA 结合当前BTC市场行情</t>
+  </si>
+  <si>
+    <t>ADA 数据支持</t>
+  </si>
+  <si>
+    <t>STO 培训教材/文章</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>提纲</t>
+  </si>
+  <si>
+    <t>数据验证</t>
+  </si>
+  <si>
+    <t>验证二级市场数据</t>
+  </si>
+  <si>
+    <t>整理当前报告数据</t>
+  </si>
+  <si>
+    <t>数据模型讲解和落地</t>
+  </si>
+  <si>
+    <t>STO SEC &amp; CME </t>
+  </si>
+  <si>
+    <t>市场和案例框架</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>SNT</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>TCT</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>STO</t>
+  </si>
+  <si>
+    <t>REG S</t>
+  </si>
+  <si>
+    <t>REG A+ XYO</t>
+  </si>
+  <si>
+    <t>更新报告 IOTA</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>翻译和研究初稿</t>
+  </si>
+  <si>
+    <t>数据整理</t>
+  </si>
+  <si>
+    <t>ADR和其它数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">短报告
+MKR
+EOSDAC
+REP
+MANA
+MGO
+EDR
+FUN
+WICC
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOSDAC
+REP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANA
+MGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDR
+FUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新报告 steem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STO 研报 SEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STO 研报 INV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WICC
+MKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADR 应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改短报告模版并验证使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,8 +973,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +1014,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -808,6 +1056,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -868,7 +1186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,8 +1241,105 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -934,16 +1349,15 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,11 +1662,11 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1422,17 +1836,17 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
@@ -1470,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="56">
+    <row r="3" spans="1:11" ht="54">
       <c r="A3" s="3">
         <v>43395</v>
       </c>
@@ -1499,7 +1913,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="28">
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="3">
         <v>43395</v>
       </c>
@@ -1522,7 +1936,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:11" ht="27">
       <c r="A5" s="3">
         <v>43395</v>
       </c>
@@ -1652,18 +2066,18 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="8"/>
-    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="8"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1701,7 +2115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="196">
+    <row r="2" spans="1:11" ht="189">
       <c r="A2" s="10">
         <v>43402</v>
       </c>
@@ -1774,7 +2188,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="42">
+    <row r="5" spans="1:11" ht="40.5">
       <c r="A5" s="10">
         <v>43402</v>
       </c>
@@ -1795,7 +2209,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="42">
+    <row r="6" spans="1:11" ht="40.5">
       <c r="A6" s="10">
         <v>43402</v>
       </c>
@@ -1837,7 +2251,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="182">
+    <row r="8" spans="1:11" ht="175.5">
       <c r="A8" s="11">
         <v>43378</v>
       </c>
@@ -1866,7 +2280,7 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="56">
+    <row r="9" spans="1:11" ht="54">
       <c r="A9" s="11">
         <v>43378</v>
       </c>
@@ -1918,7 +2332,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="28">
+    <row r="11" spans="1:11" ht="27">
       <c r="A11" s="11">
         <v>43378</v>
       </c>
@@ -1951,7 +2365,7 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="28">
+    <row r="12" spans="1:11" ht="27">
       <c r="A12" s="11">
         <v>43378</v>
       </c>
@@ -1984,7 +2398,7 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="28">
+    <row r="13" spans="1:11" ht="27">
       <c r="A13" s="11">
         <v>43378</v>
       </c>
@@ -2026,7 +2440,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="28">
+    <row r="15" spans="1:11" ht="27">
       <c r="A15" s="11">
         <v>43378</v>
       </c>
@@ -2068,18 +2482,18 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="8"/>
-    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="8"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2117,7 +2531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="182">
+    <row r="2" spans="1:11" ht="175.5">
       <c r="A2" s="13">
         <v>43378</v>
       </c>
@@ -2146,7 +2560,7 @@
       </c>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="56">
+    <row r="3" spans="1:11" ht="54">
       <c r="A3" s="13">
         <v>43378</v>
       </c>
@@ -2198,7 +2612,7 @@
       </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:11" ht="27">
       <c r="A5" s="13">
         <v>43378</v>
       </c>
@@ -2231,7 +2645,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="28">
+    <row r="6" spans="1:11" ht="27">
       <c r="A6" s="13">
         <v>43378</v>
       </c>
@@ -2264,7 +2678,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="28">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="13">
         <v>43378</v>
       </c>
@@ -2306,7 +2720,7 @@
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="28">
+    <row r="9" spans="1:11" ht="27">
       <c r="A9" s="13">
         <v>43378</v>
       </c>
@@ -2327,7 +2741,7 @@
       </c>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="168">
+    <row r="10" spans="1:11" ht="162">
       <c r="A10" s="11">
         <v>43385</v>
       </c>
@@ -2356,7 +2770,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="28">
+    <row r="11" spans="1:11" ht="27">
       <c r="A11" s="11">
         <v>43385</v>
       </c>
@@ -2465,17 +2879,17 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2510,7 +2924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="168">
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="162">
       <c r="A2" s="10">
         <v>43385</v>
       </c>
@@ -2538,7 +2952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="28">
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="27">
       <c r="A3" s="10">
         <v>43385</v>
       </c>
@@ -2622,7 +3036,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="154">
+    <row r="7" spans="1:10" ht="148.5">
       <c r="A7" s="11">
         <v>43392</v>
       </c>
@@ -2650,7 +3064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28">
+    <row r="8" spans="1:10" ht="27">
       <c r="A8" s="11">
         <v>43392</v>
       </c>
@@ -2694,7 +3108,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28">
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" s="11">
         <v>43392</v>
       </c>
@@ -2732,22 +3146,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B5"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="21.1640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="8"/>
+    <col min="10" max="10" width="21.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2782,7 +3196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="154">
+    <row r="2" spans="1:10" ht="148.5">
       <c r="A2" s="11">
         <v>43423</v>
       </c>
@@ -2810,7 +3224,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28">
+    <row r="3" spans="1:10" ht="27">
       <c r="A3" s="11">
         <v>43423</v>
       </c>
@@ -2854,7 +3268,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28">
+    <row r="5" spans="1:10" ht="27">
       <c r="A5" s="11">
         <v>43423</v>
       </c>
@@ -2886,4 +3300,994 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="27">
+      <c r="B2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29">
+        <v>43430</v>
+      </c>
+      <c r="C3" s="29">
+        <v>43434</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="2:9" ht="40.5">
+      <c r="B14" s="22">
+        <v>43430</v>
+      </c>
+      <c r="C14" s="23">
+        <v>43434</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" ht="40.5">
+      <c r="B15" s="22">
+        <v>43430</v>
+      </c>
+      <c r="C15" s="23">
+        <v>43434</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="40.5">
+      <c r="B16" s="22">
+        <v>43430</v>
+      </c>
+      <c r="C16" s="23">
+        <v>43434</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="27">
+      <c r="B17" s="22">
+        <v>43430</v>
+      </c>
+      <c r="C17" s="23">
+        <v>43434</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="35">
+        <v>43437</v>
+      </c>
+      <c r="C18" s="35">
+        <v>43441</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="35">
+        <v>43437</v>
+      </c>
+      <c r="C27" s="35">
+        <v>43441</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="2:9" ht="27">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="2:9" ht="27">
+      <c r="B30" s="26">
+        <v>43437</v>
+      </c>
+      <c r="C30" s="27">
+        <v>43441</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="35">
+        <v>43437</v>
+      </c>
+      <c r="C31" s="35">
+        <v>43441</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+    </row>
+    <row r="32" spans="2:9" ht="27">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="2:9" ht="27">
+      <c r="B33" s="26">
+        <v>43437</v>
+      </c>
+      <c r="C33" s="27">
+        <v>43441</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="I3:I13"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="E18:E26"/>
+    <mergeCell ref="I18:I26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="27">
+      <c r="B2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="40">
+        <v>43437</v>
+      </c>
+      <c r="C3" s="40">
+        <v>43441</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="40">
+        <v>43437</v>
+      </c>
+      <c r="C12" s="40">
+        <v>43441</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="48">
+        <v>43437</v>
+      </c>
+      <c r="C15" s="49">
+        <v>43441</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="40">
+        <v>43437</v>
+      </c>
+      <c r="C16" s="40">
+        <v>43441</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="48">
+        <v>43437</v>
+      </c>
+      <c r="C18" s="49">
+        <v>43441</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="2:9" ht="135">
+      <c r="B19" s="2">
+        <v>43444</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2">
+        <v>43444</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2">
+        <v>43444</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="2">
+        <v>43444</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="2">
+        <v>43444</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43448</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="I3:I11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mnt/工作周报.xlsx
+++ b/mnt/工作周报.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="187">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,7 +834,57 @@
     <t>ADR和其它数据</t>
   </si>
   <si>
-    <t xml:space="preserve">短报告
+    <t>MANA
+MGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDR
+FUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新报告 steem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STO 研报 SEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STO 研报 INV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADR 应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改短报告模版并验证使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短报告
 MKR
 EOSDAC
 REP
@@ -842,64 +892,16 @@
 MGO
 EDR
 FUN
-WICC
-</t>
+WICC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WICC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EOSDAC
 REP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANA
-MGO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDR
-FUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新报告 steem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XYO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STO 研报 SEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STO 研报 INV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大众解读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WICC
-MKR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADR 应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改短报告模版并验证使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,12 +1273,42 @@
     <xf numFmtId="58" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1289,52 +1321,22 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3319,7 +3321,7 @@
     <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="27">
+    <row r="2" spans="2:9">
       <c r="B2" s="18" t="s">
         <v>124</v>
       </c>
@@ -3346,16 +3348,16 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="29">
+      <c r="B3" s="38">
         <v>43430</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="38">
         <v>43434</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="41" t="s">
         <v>134</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -3367,17 +3369,17 @@
       <c r="H3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="20" t="s">
         <v>141</v>
       </c>
@@ -3387,117 +3389,117 @@
       <c r="H4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="20" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="32"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="32"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="32"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="32"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="32"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="32"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="32"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="2:9" ht="40.5">
       <c r="B14" s="22">
@@ -3519,7 +3521,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="2:9" ht="40.5">
+    <row r="15" spans="2:9">
       <c r="B15" s="22">
         <v>43430</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="40.5">
+    <row r="16" spans="2:9">
       <c r="B16" s="22">
         <v>43430</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="27">
+    <row r="17" spans="2:9">
       <c r="B17" s="22">
         <v>43430</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="D18" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="24" t="s">
         <v>157</v>
       </c>
@@ -3599,17 +3601,17 @@
       <c r="H18" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="32" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="24" t="s">
         <v>158</v>
       </c>
@@ -3619,81 +3621,81 @@
       <c r="H19" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="38"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="38"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="38"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="38"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="36"/>
@@ -3701,11 +3703,11 @@
       <c r="D26" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="39"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="35">
@@ -3717,41 +3719,41 @@
       <c r="D27" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="2:9" ht="27">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="2:9" ht="27">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="26">
         <v>43437</v>
       </c>
@@ -3779,29 +3781,29 @@
       <c r="D31" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-    </row>
-    <row r="32" spans="2:9" ht="27">
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-    </row>
-    <row r="33" spans="2:9" ht="27">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="26">
         <v>43437</v>
       </c>
@@ -3821,6 +3823,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="I3:I13"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="E18:E26"/>
+    <mergeCell ref="I18:I26"/>
     <mergeCell ref="I27:I29"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -3835,14 +3845,6 @@
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="C3:C13"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="I3:I13"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="C18:C26"/>
-    <mergeCell ref="E18:E26"/>
-    <mergeCell ref="I18:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3852,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I11"/>
+      <selection activeCell="H12" sqref="H12:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3868,7 +3870,7 @@
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="27">
+    <row r="2" spans="2:9">
       <c r="B2" s="18" t="s">
         <v>124</v>
       </c>
@@ -3895,246 +3897,246 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="40">
+      <c r="B3" s="47">
         <v>43437</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="47">
         <v>43441</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="44" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="44"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="41" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="40">
+      <c r="B12" s="47">
         <v>43437</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="47">
         <v>43441</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="41" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="48">
+      <c r="B15" s="30">
         <v>43437</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="31">
         <v>43441</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="40">
+      <c r="B16" s="47">
         <v>43437</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="47">
         <v>43441</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="48">
+      <c r="B18" s="30">
         <v>43437</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="31">
         <v>43441</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="2:9" ht="135">
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="2:9" ht="121.5">
       <c r="B19" s="2">
         <v>43444</v>
       </c>
@@ -4142,17 +4144,19 @@
         <v>43448</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>183</v>
@@ -4166,12 +4170,11 @@
         <v>43448</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -4184,16 +4187,16 @@
         <v>43448</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -4204,17 +4207,17 @@
         <v>43448</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -4226,48 +4229,22 @@
         <v>43448</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="I3:I11"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
@@ -4282,10 +4259,6 @@
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="I3:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
